--- a/results/tables/models_evenness.xlsx
+++ b/results/tables/models_evenness.xlsx
@@ -730,21 +730,30 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.2418669495539656</v>
+        <v>0.07933115834876357</v>
       </c>
       <c r="C2">
-        <v>-1.946354146088056</v>
+        <v>-0.6200062657801337</v>
       </c>
       <c r="D2">
-        <v>2.279055333005311</v>
+        <v>0.860276578314957</v>
       </c>
       <c r="E2">
-        <v>0.8196229648671809</v>
+        <v>0.7913453299057411</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>R2_marginal</t>
         </is>
+      </c>
+      <c r="G2">
+        <v>0.01508771398260087</v>
+      </c>
+      <c r="H2">
+        <v>1.031850989369298E-10</v>
+      </c>
+      <c r="I2">
+        <v>0.1136282217837307</v>
       </c>
     </row>
     <row r="3">
@@ -754,21 +763,30 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.1267889438682108</v>
+        <v>-0.04064582514057642</v>
       </c>
       <c r="C3">
-        <v>-1.606270444211376</v>
+        <v>-0.3383417842082005</v>
       </c>
       <c r="D3">
-        <v>1.377442206203214</v>
+        <v>0.2858757435453665</v>
       </c>
       <c r="E3">
-        <v>0.8740359897172236</v>
+        <v>0.7776349614395888</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>R2_conditional</t>
         </is>
+      </c>
+      <c r="G3">
+        <v>0.1939613721547436</v>
+      </c>
+      <c r="H3">
+        <v>0.02052496077604254</v>
+      </c>
+      <c r="I3">
+        <v>0.3842075680048946</v>
       </c>
     </row>
     <row r="4">
@@ -778,13 +796,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.7252220098689369</v>
+        <v>0.2034937036027606</v>
       </c>
       <c r="C4">
-        <v>0.0009780356801064019</v>
+        <v>8.910691408614026E-05</v>
       </c>
       <c r="D4">
-        <v>1.863927222610999</v>
+        <v>0.5228144790442868</v>
       </c>
     </row>
     <row r="5">
@@ -794,13 +812,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.134290764090001</v>
+        <v>0.5005092524946505</v>
       </c>
       <c r="C5">
-        <v>0.000681998369150228</v>
+        <v>0.0005315177156924297</v>
       </c>
       <c r="D5">
-        <v>3.074977136134567</v>
+        <v>1.354779975109352</v>
       </c>
     </row>
   </sheetData>
